--- a/LabClientServerApp/SqlScript/191028_insert_im.xlsx
+++ b/LabClientServerApp/SqlScript/191028_insert_im.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\LabClientServerApp\SqlScript\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57CD9C8E-BC28-4E39-A4A5-FAD78B1175F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E1AB4178-3F24-4F1C-84FC-8850E811BE81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="253">
   <si>
     <t>Амурский тигр</t>
   </si>
@@ -362,9 +359,6 @@
     <t>Madagascar_shepherds</t>
   </si>
   <si>
-    <t>a_lion</t>
-  </si>
-  <si>
     <t>Smoky_leopard</t>
   </si>
   <si>
@@ -459,13 +453,349 @@
   </si>
   <si>
     <t>INSERT INTO dbo.IM_Types (TypeCode, TypeName) VALUES (</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>CountryName</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>AmountNationalReserves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Россия                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евразия                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москва                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Латвия                   </t>
+  </si>
+  <si>
+    <t>Рига</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Китай                    </t>
+  </si>
+  <si>
+    <t>Пекин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белорусь                 </t>
+  </si>
+  <si>
+    <t>Минск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Казахстан                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Астана                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Япония                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Токио                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Украина                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киев                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индия                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нью-Дели                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монголия                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Улан-Батор               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таджикистан              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Душанбе                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Армения                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ереван                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Греция                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Афины                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индонезия                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Джакарта                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мьянма                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нейпьидо                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бангладеш                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дакка                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Африка                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киншаса                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Австралия                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Канберра                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Канада                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Северная Америка         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оттава                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">США                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вашингтон                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вьетнам                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ханой                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чили                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Южная Америка            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саньтьяго                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аргентина                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Южная Америка   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Буенос-Айрес             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Габон                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Либревиль                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нигерия                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Абудже                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мадагаскар               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Антананариву             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кения                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найроби                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Люксенбург               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дания                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Копенгаген               </t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Конго                    </t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Eurasia</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Австралия</t>
+  </si>
+  <si>
+    <t>Африка</t>
+  </si>
+  <si>
+    <t>Евразия</t>
+  </si>
+  <si>
+    <t>Северная Америка</t>
+  </si>
+  <si>
+    <t>Южная Америка</t>
+  </si>
+  <si>
+    <t>SquadCode</t>
+  </si>
+  <si>
+    <t>TypeCode</t>
+  </si>
+  <si>
+    <t>ContinentName</t>
+  </si>
+  <si>
+    <t>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES (</t>
+  </si>
+  <si>
+    <t>ContinentCode</t>
+  </si>
+  <si>
+    <t>INSERT INTO dbo.IM_Continents (ContinentCode, ContinentName) VALUES (</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Антарктида</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,26 +814,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -527,21 +879,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -602,7 +966,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -654,7 +1018,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -848,18 +1212,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A702135-3C24-4729-A244-96BBD00D35F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,824 +1232,824 @@
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="160.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
         <v>200</v>
       </c>
-      <c r="F2" t="str">
-        <f>_xlfn.CONCAT($F$1, "'", A2, "', '", B2, "', '", C2, "', '", D2, "', ", E2, ");")</f>
+      <c r="F2" s="7" t="str">
+        <f>CONCATENATE($F$1, "'", A2, "', '", B2, "', '", C2, "', '", D2, "', ", E2, ");")</f>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Amur_tiger', 'Амурский тигр', 'Хищные', 'Хордовые', 200);</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F39" si="0">_xlfn.CONCAT($F$1, "'", A3, "', '", B3, "', '", C3, "', '", D3, "', ", E3, ");")</f>
+      <c r="F3" s="7" t="str">
+        <f t="shared" ref="F3:F39" si="0">CONCATENATE($F$1, "'", A3, "', '", B3, "', '", C3, "', '", D3, "', ", E3, ");")</f>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Muskrat', 'Выхухоль', 'Насекомоядные', 'Хордовые', 0.45);</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Comb_Newt', 'Гребенчатый тритон', 'Хвостатые земноводные', 'Хордовые', 0.013);</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Steppe_eagle', 'Степной орел', 'Соколообразные', 'Хордовые', 3.5);</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>15</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Japanese_crab', 'Японский краб', 'Десятиногие', 'Членистоногие', 15);</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
         <v>500</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Azov_Beluga', 'Азовская белуга', 'Осетрообразные', 'Хордовые', 500);</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Stag_beetle', 'Жук-олень', 'Жесткокрылые', 'Членистоногие', 0.08);</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
         <v>900</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Bison', 'Зубр', 'Парнокопытные', 'Хордовые', 900);</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
         <v>55</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Snow_Leopard', 'Снежный барс', 'Хищные', 'Хордовые', 55);</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Legged_hatopterus', 'Разноногий хетоптерус', 'Щетинко-крылообразные', 'Кольчатые черви', 0.012);</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Cat_snake', 'Кошачья змея', 'Чешуйчатые', 'NULL', 0.3);</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Sharp-eyed_night', 'Остроухая ночница', 'Рукокрылые', 'Хордовые', 0.03);</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
         <v>300</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Monk_seal', 'Тюлень-монах', 'Хищные', 'Хордовые', 300);</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
         <v>10</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Passageway', 'Проехидна', 'Клоачные', 'Хордовые', 10);</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
         <v>800</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Sumatran_Rhino', 'Носорог  суматранский', 'Непарнокопытные', 'Хордовые', 800);</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
         <v>230</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Forest_giraffe', 'Лесной жираф', 'Парнокопытные', 'Хордовые', 230);</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
         <v>12</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Marsupial_devil', 'Сумчатый дьявол', 'Хищные', 'Хордовые', 12);</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
         <v>4</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Manul', 'Манул', 'Хищные', 'Хордовые', 4);</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Stargazer', 'Звездонос', 'Насекомоядные', 'NULL', 0.085);</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
         <v>450</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Grizzly_bear', 'Гризли медведь', 'Всеядные', 'Хордовые', 450);</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
         <v>160</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Mountain_gorilla', 'Горная горилла', 'Приматы', 'Хордовые', 160);</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
         <v>2100</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Rhinoceros_Javanese', 'Носорог яванский', 'Непарнокопытные', 'Хордовые', 2100);</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6">
         <v>160</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Big_panda', 'Большая панда', 'Хищные', 'Хордовые', 160);</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
         <v>5</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Magellanic_Penguin', 'Магелланов пингвин', 'Пингвинообразные', 'Хордовые', 5);</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="D26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
         <v>350</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Polar_bear', 'Белый медведь', 'Хищные', 'Хордовые', 350);</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="D27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
         <v>1000</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Pacific_walruses', 'Тихоокенские моржи', 'Хищные', 'Хордовые', 1000);</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="D28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
         <v>14</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('California_condor', 'Калифорнийский кондор', 'Соколообразные', 'Хордовые', 14);</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
         <v>325</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Pre-Wwalski_Horse', 'Лошадь Прежвальского', 'Непарнокопытные', 'Хордовые', 325);</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Red-crowned_crane', 'Японский журавль', 'Журавлеобразные', 'NULL', 7.05);</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6">
         <v>830</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Manatee', 'Ламантин', 'Сирены', 'Хордовые', 830);</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
         <v>570</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Bactrian', 'Бактриан', 'Парнокопытные', 'Хордовые', 570);</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" t="str">
+      <c r="D33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Madagascar_shepherds', 'Мадагаскарские пастушки', 'Журавлеобразные', 'Хордовые', 2);</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
         <v>400</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Grevys_Zebra', 'Зебра Греви', 'Непарнокопытные', 'Хордовые', 400);</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Lemur', 'Лемур', 'Приматы', 'Хордовые', 3.05);</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>180</v>
+      </c>
+      <c r="F36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Lion', 'Лев', 'Хищные', 'Хордовые', 180);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>180</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('a_lion', 'Лев', 'Хищные', 'Хордовые', 180);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>20</v>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Smoky_leopard', 'Дымчатый леопард', 'Хищные', 'Хордовые', 20);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Mouse', 'Мышь', 'Грызуны', 'Хордовые', 0.01);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="4">
-        <v>20</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Smoky_leopard', 'Дымчатый леопард', 'Хищные', 'Хордовые', 20);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Mouse', 'Мышь', 'Грызуны', 'Хордовые', 0.01);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4">
+      <c r="D39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="6">
         <v>3800</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Animals (AnimalCode, AnimalName, SquadName, TypeName, TypicalWeight) VALUES ('Elephant_indian', 'Слон индийский', 'Хоботные', 'Хордовые', 3800);</v>
       </c>
@@ -1697,11 +2061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD2BA3C-6960-4078-B352-1A719B8C566C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,246 +2076,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
-        <v>137</v>
+      <c r="A1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <f>CONCATENATE($C$1, "'", B2, "', '", A2, "');")</f>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Omnivores', 'Всеядные');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C2" t="str">
-        <f>_xlfn.CONCAT($C$1, "'", B2, "', '", A2, "');")</f>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Omnivores', 'Всеядные');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="7" t="str">
+        <f t="shared" ref="C3:C21" si="0">CONCATENATE($C$1, "'", B3, "', '", A3, "');")</f>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Rodents', 'Грызуны');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C21" si="0">_xlfn.CONCAT($C$1, "'", B3, "', '", A3, "');")</f>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Rodents', 'Грызуны');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Decapods', 'Десятиногие');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Decapods', 'Десятиногие');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Winged', 'Жесткокрылые');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Winged', 'Жесткокрылые');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Crane-like', 'Журавлеобразные');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Crane-like', 'Журавлеобразные');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Foul', 'Клоачные');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Foul', 'Клоачные');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Insectivores', 'Насекомоядные');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Insectivores', 'Насекомоядные');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Ungulate', 'Непарнокопытные');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Ungulate', 'Непарнокопытные');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Sturgeon-like', 'Осетрообразные');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Sturgeon-like', 'Осетрообразные');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Artiodactyls', 'Парнокопытные');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Artiodactyls', 'Парнокопытные');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Penguin-like', 'Пингвинообразные');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Penguin-like', 'Пингвинообразные');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Primates', 'Приматы');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Primates', 'Приматы');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Bats', 'Рукокрылые');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Bats', 'Рукокрылые');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Sirens', 'Сирены');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Sirens', 'Сирены');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Falconiformes', 'Соколообразные');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Falconiformes', 'Соколообразные');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Tailed amphibians', 'Хвостатые земноводные');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Tailed amphibians', 'Хвостатые земноводные');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Predatory', 'Хищные');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Predatory', 'Хищные');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Proboscis', 'Хоботные');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Proboscis', 'Хоботные');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Scaly', 'Чешуйчатые');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Scaly', 'Чешуйчатые');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" t="str">
+      <c r="C21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO dbo.IM_Squads (SquadCode, SquadName) VALUES ('Bristle-winged', 'Щетинко-крылообразные');</v>
       </c>
@@ -1963,63 +2333,1091 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CED13FB-9BF0-4CF3-9C0A-B93742EA7375}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="90.28515625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="7" t="str">
+        <f t="shared" ref="C2:C3" si="0">CONCATENATE($C$1, "'", B2, "', '", A2, "');")</f>
+        <v>INSERT INTO dbo.IM_Types (TypeCode, TypeName) VALUES ('Annelids', 'Кольчатые черви');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Types (TypeCode, TypeName) VALUES ('Chordate', 'Хордовые');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>CONCATENATE($C$1, "'", B4, "', '", A4, "');")</f>
+        <v>INSERT INTO dbo.IM_Types (TypeCode, TypeName) VALUES ('Arthropods', 'Членистоногие');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="90.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="194.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="5">
+        <v>93</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>CONCATENATE($F$1, "'", A2, "', '", B2, "', '", C2, "', '", D2, "', ", E2, ");")</f>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('RUS', 'Россия                   ', 'Евразия                  ', 'Москва                   ', 93);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f t="shared" ref="F3:F29" si="0">CONCATENATE($F$1, "'", A3, "', '", B3, "', '", C3, "', '", D3, "', ", E3, ");")</f>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('LVA', 'Латвия                   ', 'Евразия                  ', 'Рига', 4);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="5">
+        <v>319</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('CHN', 'Китай                    ', 'Евразия                  ', 'Пекин', 319);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('BLR', 'Белорусь                 ', 'Евразия                  ', 'Минск', 6);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('KAZ', 'Казахстан                ', 'Евразия                  ', 'Астана                   ', 10);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('JPN', 'Япония                   ', 'Евразия                  ', 'Токио                    ', 7);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="5">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('UKR', 'Украина                  ', 'Евразия                  ', 'Киев                     ', 19);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="5">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('IND', 'Индия                    ', 'Евразия                  ', 'Нью-Дели                 ', 34);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="5">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('MNG', 'Монголия                 ', 'Евразия                  ', 'Улан-Батор               ', 11);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('TJK', 'Таджикистан              ', 'Евразия                  ', 'Душанбе                  ', 5);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('ARM', 'Армения                  ', 'Евразия                  ', 'Ереван                   ', 5);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('GRC', 'Греция                   ', 'Евразия                  ', 'Афины                    ', NULL);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('IDN', 'Индонезия                ', 'Евразия                  ', 'Джакарта                 ', 6);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('MMR', 'Мьянма                   ', 'Евразия                  ', 'Нейпьидо                 ', 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('BGD', 'Бангладеш                ', 'Евразия                  ', 'Дакка                    ', 3);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('COG', 'Республика Конго                    ', 'Африка                   ', 'Киншаса                  ', 5);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('AUS', 'Австралия                ', 'Австралия                ', 'Канберра                 ', 4);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="5">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('CAN', 'Канада                   ', 'Северная Америка         ', 'Оттава                   ', 15);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="5">
+        <v>50</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('USA', 'США                      ', 'Северная Америка         ', 'Вашингтон                ', 50);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="5">
+        <v>34</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('VNM', 'Вьетнам                  ', 'Евразия                  ', 'Ханой                    ', 34);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('CHL', 'Чили                     ', 'Южная Америка            ', 'Саньтьяго                ', NULL);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="5">
+        <v>23</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('ARG', 'Аргентина                ', 'Южная Америка   ', 'Буенос-Айрес             ', 23);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('GAB', 'Габон                    ', 'Африка                   ', 'Либревиль                ', 3);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('NGA', 'Нигерия                  ', 'Африка                   ', 'Абудже                   ', NULL);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('MDG', 'Мадагаскар               ', 'Африка                   ', 'Антананариву             ', 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('KEN', 'Кения                    ', 'Африка                   ', 'Найроби                  ', 3);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('LUX', 'Люксенбург               ', 'Евразия                  ', 'Люксенбург               ', NULL);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Countries (CountryCode, CountryName, ContinentName, Capital, AmountNationalReserves) VALUES ('DNK', 'Дания                    ', 'Евразия                  ', 'Копенгаген               ', NULL);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="120.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>141</v>
+      <c r="A1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>235</v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.CONCAT($C$1, "'", B2, "', '", A2, "');")</f>
-        <v>INSERT INTO dbo.IM_Types (TypeCode, TypeName) VALUES ('Annelids', 'Кольчатые черви');</v>
+        <f>CONCATENATE($C$1, "'", B2, "', '", A2, "');")</f>
+        <v>INSERT INTO dbo.IM_Continents (ContinentCode, ContinentName) VALUES ('Africa', 'Африка');</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C4" si="0">_xlfn.CONCAT($C$1, "'", B3, "', '", A3, "');")</f>
-        <v>INSERT INTO dbo.IM_Types (TypeCode, TypeName) VALUES ('Chordate', 'Хордовые');</v>
+        <f>CONCATENATE($C$1, "'", B3, "', '", A3, "');")</f>
+        <v>INSERT INTO dbo.IM_Continents (ContinentCode, ContinentName) VALUES ('Antarctica', 'Антарктида');</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO dbo.IM_Types (TypeCode, TypeName) VALUES ('Arthropods', 'Членистоногие');</v>
+        <f t="shared" ref="C4:C7" si="0">CONCATENATE($C$1, "'", B4, "', '", A4, "');")</f>
+        <v>INSERT INTO dbo.IM_Continents (ContinentCode, ContinentName) VALUES ('Australia', 'Австралия');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Continents (ContinentCode, ContinentName) VALUES ('Eurasia', 'Евразия');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Continents (ContinentCode, ContinentName) VALUES ('North America', 'Северная Америка');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Continents (ContinentCode, ContinentName) VALUES ('South America', 'Южная Америка');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="144.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LabClientServerApp/SqlScript/191028_insert_im.xlsx
+++ b/LabClientServerApp/SqlScript/191028_insert_im.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="255">
   <si>
     <t>Амурский тигр</t>
   </si>
@@ -789,6 +789,12 @@
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES (</t>
+  </si>
+  <si>
+    <t>a_lion</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1218,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3038,7 +3044,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3139,10 +3145,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,7 +3158,7 @@
     <col min="4" max="4" width="144.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -3162,8 +3168,11 @@
       <c r="C1" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -3173,8 +3182,12 @@
       <c r="C2">
         <v>450</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>CONCATENATE($D$1, "'", A2, "', '", B2, "', ", C2, ");")</f>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Amur_tiger', 'RUS', 450);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -3184,8 +3197,12 @@
       <c r="C3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">CONCATENATE($D$1, "'", A3, "', '", B3, "', ", C3, ");")</f>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Amur_tiger', 'CHN', 50);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -3195,8 +3212,12 @@
       <c r="C4">
         <v>35000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Muskrat', 'RUS', 35000);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -3206,8 +3227,12 @@
       <c r="C5">
         <v>250</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Comb_Newt', 'RUS', 250);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -3217,8 +3242,12 @@
       <c r="C6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Comb_Newt', 'LVA', 50);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -3228,8 +3257,12 @@
       <c r="C7">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Comb_Newt', 'BLR', 30);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -3239,8 +3272,12 @@
       <c r="C8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Steppe_eagle', 'RUS', 20000);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -3250,8 +3287,12 @@
       <c r="C9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Steppe_eagle', 'KAZ', 10000);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -3261,8 +3302,12 @@
       <c r="C10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Japanese_crab', 'RUS', 100);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -3272,8 +3317,12 @@
       <c r="C11">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Japanese_crab', 'JPN', 500);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -3283,8 +3332,12 @@
       <c r="C12">
         <v>24000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Azov_Beluga', 'RUS', 24000);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -3294,8 +3347,12 @@
       <c r="C13">
         <v>20000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Stag_beetle', 'RUS', 20000);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3305,8 +3362,12 @@
       <c r="C14">
         <v>500</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Bison', 'RUS', 500);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -3316,8 +3377,12 @@
       <c r="C15">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Bison', 'UKR', 150);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -3327,8 +3392,12 @@
       <c r="C16">
         <v>200</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Snow_Leopard', 'RUS', 200);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -3338,8 +3407,12 @@
       <c r="C17">
         <v>3500</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Snow_Leopard', 'CHN', 3500);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -3349,8 +3422,12 @@
       <c r="C18">
         <v>600</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Snow_Leopard', 'IND', 600);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -3360,8 +3437,12 @@
       <c r="C19">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Snow_Leopard', 'MNG', 1000);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -3371,8 +3452,12 @@
       <c r="C20">
         <v>220</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Snow_Leopard', 'TJK', 220);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -3382,8 +3467,12 @@
       <c r="C21">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Legged_hatopterus', 'RUS', 80);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -3393,8 +3482,12 @@
       <c r="C22">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Legged_hatopterus', 'CHN', 500);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -3404,8 +3497,12 @@
       <c r="C23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Cat_snake', 'RUS', 100);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -3414,6 +3511,670 @@
       </c>
       <c r="C24">
         <v>600</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Cat_snake', 'ARM', 600);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25">
+        <v>500000</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Sharp-eyed_night', 'RUS', 500000);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Monk_seal', 'GRC', 1000);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27">
+        <v>300000</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Passageway', 'IDN', 300000);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Sumatran_Rhino', 'IDN', 30);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29">
+        <v>80</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Sumatran_Rhino', 'MMR', 80);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30">
+        <v>120</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Sumatran_Rhino', 'BGD', 120);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31">
+        <v>10000</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Forest_giraffe', 'COG', 10000);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32">
+        <v>100000</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Marsupial_devil', 'AUS', 100000);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33">
+        <v>2300</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Manul', 'RUS', 2300);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Manul', 'CHN', 1000);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35">
+        <v>40000</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Stargazer', 'CAN', 40000);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36">
+        <v>600</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Grizzly_bear', 'USA', 600);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37">
+        <v>720</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Mountain_gorilla', 'COG', 720);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Rhinoceros_Javanese', 'VNM', 60);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39">
+        <v>1600</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Big_panda', 'CHN', 1600);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40">
+        <v>800000</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Magellanic_Penguin', 'CHL', 800000);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41">
+        <v>900000</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Magellanic_Penguin', 'ARG', 900000);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42">
+        <v>18000</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Polar_bear', 'RUS', 18000);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43">
+        <v>4000</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Polar_bear', 'CAN', 4000);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44">
+        <v>200000</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Pacific_walruses', 'RUS', 200000);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45">
+        <v>120</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('California_condor', 'USA', 120);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46">
+        <v>500</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Pre-Wwalski_Horse', 'CHN', 500);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47">
+        <v>400</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Pre-Wwalski_Horse', 'MNG', 400);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48">
+        <v>500</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Red-crowned_crane', 'RUS', 500);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49">
+        <v>1500</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Red-crowned_crane', 'JPN', 1500);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50">
+        <v>1500</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Manatee', 'GAB', 1500);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51">
+        <v>1700</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Manatee', 'NGA', 1700);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52">
+        <v>200</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Bactrian', 'KAZ', 200);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53">
+        <v>700</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Bactrian', 'MNG', 700);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54">
+        <v>12000</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Madagascar_shepherds', 'MDG', 12000);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55">
+        <v>5000</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Grevys_Zebra', 'KEN', 5000);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56">
+        <v>1000</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Lemur', 'MDG', 1000);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57">
+        <v>200</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('a_lion', 'IND', 200);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58">
+        <v>100</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('a_lion', 'BGD', 100);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59">
+        <v>180</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('a_lion', 'KEN', 180);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60">
+        <v>570</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Smoky_leopard', 'IDN', 570);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61">
+        <v>600</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Smoky_leopard', 'VNM', 600);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C62">
+        <v>40000</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Mouse', 'RUS', 40000);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63">
+        <v>30000</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Mouse', 'CHN', 30000);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64">
+        <v>42000</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Mouse', 'BLR', 42000);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65">
+        <v>50000</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Mouse', 'UKR', 50000);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66">
+        <v>10000</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Elephant_indian', 'IND', 10000);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67">
+        <v>9000</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D68" si="1">CONCATENATE($D$1, "'", A67, "', '", B67, "', ", C67, ");")</f>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Elephant_indian', 'IDN', 9000);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68">
+        <v>8000</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO dbo.IM_Habitat (AnimalCode, CountryCode, Population) VALUES ('Elephant_indian', 'VNM', 8000);</v>
       </c>
     </row>
   </sheetData>
